--- a/data/CS5/case9/case9_2027.xlsx
+++ b/data/CS5/case9/case9_2027.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590AB682-B6F8-4F5E-B87D-1DAA2D9BFF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D023EB-1468-4B35-9660-F713BE14197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="-11880" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33555" yWindow="-9525" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,11 +4414,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:E1" si="0">1/3</f>

--- a/data/CS5/case9/case9_2027.xlsx
+++ b/data/CS5/case9/case9_2027.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D023EB-1468-4B35-9660-F713BE14197F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6467385-03C9-449A-AB6A-8E91B15E9D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33555" yWindow="-9525" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32550" yWindow="-10530" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4417,39 +4417,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="1">
+        <f>1/$B$1</f>
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:E1" si="0">1/3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
-        <f t="shared" ref="F1:K1" si="1">1/9</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="I1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K1" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2027.xlsx
+++ b/data/CS5/case9/case9_2027.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6467385-03C9-449A-AB6A-8E91B15E9D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5A0A4A-9FAB-4E7D-AD4C-2A315D2D16BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32550" yWindow="-10530" windowWidth="28800" windowHeight="15285" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32445" yWindow="-10350" windowWidth="17280" windowHeight="9960" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:K1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2027.xlsx
+++ b/data/CS5/case9/case9_2027.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5A0A4A-9FAB-4E7D-AD4C-2A315D2D16BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25336A3B-0834-4D80-A8A0-736C9CCF4DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32445" yWindow="-10350" windowWidth="17280" windowHeight="9960" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="9960" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2027.xlsx
+++ b/data/CS5/case9/case9_2027.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5A0A4A-9FAB-4E7D-AD4C-2A315D2D16BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0889A00C-C82A-412D-91AA-E8BF0DC52B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32445" yWindow="-10350" windowWidth="17280" windowHeight="9960" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/data/CS5/case9/case9_2027.xlsx
+++ b/data/CS5/case9/case9_2027.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0889A00C-C82A-412D-91AA-E8BF0DC52B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E2FB2E-37DF-4912-9051-1577C2053AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/data/CS5/case9/case9_2027.xlsx
+++ b/data/CS5/case9/case9_2027.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E2FB2E-37DF-4912-9051-1577C2053AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1054C582-D37D-4FB3-B792-A4C2C1539DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4414,43 +4414,43 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:K1" si="0">1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K1" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
